--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_MinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_MinhHuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -479,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,12 +631,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,6 +670,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -688,31 +706,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1021,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1029,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1054,46 +1048,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1118,7 +1112,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="56"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1135,99 +1129,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,15 +1244,15 @@
       <c r="G6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="58" t="s">
+      <c r="H6" s="60"/>
+      <c r="I6" s="56" t="s">
         <v>78</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>72</v>
       </c>
       <c r="K6" s="40"/>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="63" t="s">
         <v>70</v>
       </c>
       <c r="M6" s="40" t="s">
@@ -1278,14 +1272,14 @@
         <v>76</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="66" t="s">
+      <c r="T6" s="61"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="63"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1314,8 +1308,8 @@
       <c r="J7" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="63" t="s">
         <v>70</v>
       </c>
       <c r="M7" s="40" t="s">
@@ -1335,12 +1329,12 @@
         <v>23</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="63"/>
+      <c r="W7" s="61"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1363,14 +1357,14 @@
         <v>62</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="56" t="s">
         <v>74</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>72</v>
       </c>
       <c r="K8" s="40"/>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="63" t="s">
         <v>70</v>
       </c>
       <c r="M8" s="40" t="s">
@@ -1390,12 +1384,12 @@
         <v>76</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="63"/>
+      <c r="W8" s="61"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1418,7 +1412,7 @@
         <v>62</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="56" t="s">
         <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1427,7 +1421,7 @@
       <c r="K9" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="63" t="s">
         <v>70</v>
       </c>
       <c r="M9" s="40" t="s">
@@ -1447,12 +1441,12 @@
         <v>66</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="63"/>
+      <c r="W9" s="61"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1476,12 +1470,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="63"/>
+      <c r="W10" s="61"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1505,12 +1499,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="63"/>
+      <c r="W11" s="61"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1534,14 +1528,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="61"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="63"/>
+      <c r="W12" s="61"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1565,12 +1559,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="63"/>
+      <c r="W13" s="61"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1594,12 +1588,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="63"/>
+      <c r="W14" s="61"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1624,11 +1618,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="63"/>
+      <c r="W15" s="61"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1653,11 +1647,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="63"/>
+      <c r="W16" s="61"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1682,9 +1676,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="63"/>
+      <c r="U17" s="61"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="63"/>
+      <c r="W17" s="61"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1697,7 +1691,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="58"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="40"/>
@@ -1720,11 +1714,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="58"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1736,7 +1730,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1755,7 +1749,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="58"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1787,7 +1781,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1819,7 +1813,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="58"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1851,7 +1845,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="58"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1878,7 +1872,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="58"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1905,7 +1899,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="58"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1917,7 +1911,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="64" t="s">
+      <c r="U25" s="62" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -1936,7 +1930,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="58"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1968,7 +1962,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="58"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2000,7 +1994,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="58"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2032,7 +2026,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="58"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2064,7 +2058,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="58"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2096,7 +2090,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="58"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2128,7 +2122,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="58"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2160,7 +2154,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="58"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2192,7 +2186,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="58"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2224,7 +2218,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="58"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2256,7 +2250,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="58"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2288,7 +2282,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="58"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2320,7 +2314,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="58"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2347,7 +2341,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="58"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2374,7 +2368,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="58"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2406,7 +2400,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="58"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2438,7 +2432,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="58"/>
+      <c r="I42" s="56"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2465,7 +2459,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="58"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2492,7 +2486,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="58"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2528,7 +2522,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="58"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2567,7 +2561,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="58"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2606,7 +2600,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="58"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2645,7 +2639,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="58"/>
+      <c r="I48" s="56"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2687,7 +2681,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="58"/>
+      <c r="I49" s="56"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2715,7 +2709,7 @@
       <c r="F50" s="45"/>
       <c r="G50" s="45"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="59"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2743,7 +2737,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="58"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2771,7 +2765,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="60"/>
+      <c r="I52" s="58"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2799,7 +2793,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="60"/>
+      <c r="I53" s="58"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2827,7 +2821,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="60"/>
+      <c r="I54" s="58"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2855,7 +2849,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="60"/>
+      <c r="I55" s="58"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2884,6 +2878,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2895,13 +2896,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2912,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2945,43 +2939,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3026,58 +3020,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3102,49 +3096,75 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868926033955318</v>
+      </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="G6" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3156,26 +3176,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868926033958221</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="I7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3185,26 +3231,52 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868926033953420</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3214,26 +3286,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="39">
+        <v>866192037778782</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="G9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3262,7 +3362,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3291,7 +3391,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3320,7 +3420,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3351,7 +3451,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3380,7 +3480,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3409,7 +3509,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3438,7 +3538,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3557,7 +3657,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3621,7 +3721,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3898,7 +3998,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -3930,7 +4030,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4026,7 +4126,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4090,7 +4190,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4669,13 +4769,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4687,6 +4780,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
